--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_10_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_10_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.2537806497148765, 5.813708157675771]</t>
+          <t>[5.256077058662154, 5.811411748728494]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.13912127105512884, 0.4244157417511998]</t>
+          <t>[0.1390343860285963, 0.4245026267777323]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0002494520652949195</v>
+        <v>0.000251334720973162</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002494520652949195</v>
+        <v>0.000251334720973162</v>
       </c>
       <c r="W2" t="n">
         <v>9.079959959960263</v>
